--- a/VT_REG1_TRA_V12.xlsx
+++ b/VT_REG1_TRA_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EBD922C-8989-4DE7-AB35-9713268C12AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603D07CC-6450-4F33-A892-7D2CDD2EC399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="901" activeTab="3"/>
+    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -42,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,14 +65,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -338,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -464,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -489,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -552,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -800,14 +800,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -921,7 +921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1" shapeId="0">
+    <comment ref="T3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -947,7 +947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U10" authorId="2" shapeId="0">
+    <comment ref="U10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1199,7 +1199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V10" authorId="1" shapeId="0">
+    <comment ref="V10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W10" authorId="2" shapeId="0">
+    <comment ref="W10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1287,7 +1287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="2" shapeId="0">
+    <comment ref="O11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1535,7 +1535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="180">
   <si>
     <t>CommName</t>
   </si>
@@ -1891,18 +1891,6 @@
     <t>CALIBRATION</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>WD</t>
-  </si>
-  <si>
-    <t>WN</t>
-  </si>
-  <si>
     <t>DAYNITE</t>
   </si>
   <si>
@@ -2081,36 +2069,6 @@
   </si>
   <si>
     <t>Bpass*km</t>
-  </si>
-  <si>
-    <t>RD</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>WP</t>
-  </si>
-  <si>
-    <t>*Demand Commodity Name</t>
-  </si>
-  <si>
-    <t>~FI_T:COM_FR</t>
   </si>
   <si>
     <t>~FI_T: PASTI</t>
@@ -2122,14 +2080,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2159,32 +2117,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2655,45 +2587,45 @@
   </borders>
   <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2712,33 +2644,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="13"/>
@@ -2755,83 +2687,83 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="13" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="29" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="23" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="21" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="17" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="8" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="21" fillId="8" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2842,32 +2774,32 @@
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2875,7 +2807,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2884,34 +2816,34 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="10" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="10" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="1" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="1" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="11" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="11" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="15" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="10" borderId="1" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="10" borderId="16" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="10" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="10" borderId="14" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="16" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="2" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="14" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="29" fillId="13" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="13" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2926,61 +2858,52 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="13" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="13" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="26" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="26" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="17"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="17" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="9"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="38">
@@ -2989,39 +2912,39 @@
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="6"/>
-    <cellStyle name="Comma 2 2" xfId="7"/>
-    <cellStyle name="Comma 2 3" xfId="8"/>
+    <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Good" xfId="9" builtinId="26"/>
     <cellStyle name="Input" xfId="10" builtinId="20"/>
-    <cellStyle name="Migliaia_tab emissioni" xfId="11"/>
+    <cellStyle name="Migliaia_tab emissioni" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Neutral" xfId="12" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="13"/>
-    <cellStyle name="Normal 2" xfId="14"/>
-    <cellStyle name="Normal 2 3" xfId="15"/>
-    <cellStyle name="Normal 4" xfId="16"/>
-    <cellStyle name="Normal 4 2" xfId="17"/>
-    <cellStyle name="Normal 8" xfId="18"/>
-    <cellStyle name="Normal 9 2" xfId="19"/>
-    <cellStyle name="Normale_B2020" xfId="20"/>
+    <cellStyle name="Normal 10" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 8" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normale_B2020" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Percent" xfId="21" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="22"/>
-    <cellStyle name="Percent 3" xfId="23"/>
-    <cellStyle name="Percent 3 2" xfId="24"/>
-    <cellStyle name="Percent 3 3" xfId="25"/>
-    <cellStyle name="Percent 3 4" xfId="26"/>
-    <cellStyle name="Percent 4" xfId="27"/>
-    <cellStyle name="Percent 4 2" xfId="28"/>
-    <cellStyle name="Percent 4 3" xfId="29"/>
-    <cellStyle name="Percent 4 4" xfId="30"/>
-    <cellStyle name="Percent 5" xfId="31"/>
-    <cellStyle name="Percent 5 2" xfId="32"/>
-    <cellStyle name="Percent 5 3" xfId="33"/>
-    <cellStyle name="Percent 6" xfId="34"/>
-    <cellStyle name="Percent 7" xfId="35"/>
-    <cellStyle name="Percent 8" xfId="36"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="37"/>
+    <cellStyle name="Percent 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 3 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 3 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 3 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 4" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Percent 4 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Percent 4 4" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Percent 5" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Percent 5 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Percent 5 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Percent 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Percent 7" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Percent 8" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4941,7 +4864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -4991,40 +4914,40 @@
         <v>46</v>
       </c>
       <c r="G2" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="L2" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="M2" s="51" t="s">
         <v>128</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>132</v>
       </c>
       <c r="N2" s="51" t="s">
         <v>47</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P2" s="51" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q2" s="51" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S2" s="51" t="s">
         <v>48</v>
@@ -5036,11 +4959,11 @@
         <v>50</v>
       </c>
       <c r="V2" s="51" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="X2" s="8"/>
       <c r="Y2" s="50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>76</v>
@@ -5051,7 +4974,7 @@
     </row>
     <row r="3" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C3" s="71" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>51</v>
@@ -5060,43 +4983,43 @@
         <v>52</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M3" s="52" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N3" s="52" t="s">
         <v>53</v>
       </c>
       <c r="O3" s="52" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P3" s="52" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="52" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R3" s="52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="S3" s="52" t="s">
         <v>54</v>
@@ -5822,7 +5745,7 @@
         <v>89</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="58">
         <f t="shared" ref="D13:V13" si="1">SUM(D5:D12)</f>
@@ -5919,7 +5842,7 @@
     <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="C16" s="57" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
@@ -6024,43 +5947,43 @@
         <v>52</v>
       </c>
       <c r="F24" s="124" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G24" s="124" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H24" s="124" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I24" s="124" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J24" s="124" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K24" s="124" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L24" s="124" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M24" s="124" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N24" s="124" t="s">
         <v>53</v>
       </c>
       <c r="O24" s="124" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P24" s="124" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="124" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R24" s="124" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="S24" s="124" t="s">
         <v>54</v>
@@ -6081,7 +6004,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D25" s="103"/>
       <c r="E25" s="107">
@@ -6116,7 +6039,7 @@
       <c r="V25" s="65"/>
       <c r="W25" s="8"/>
       <c r="X25" s="61" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
@@ -6125,7 +6048,7 @@
         <v>66</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D26" s="105"/>
       <c r="E26" s="109">
@@ -6166,7 +6089,7 @@
       <c r="V26" s="54"/>
       <c r="W26" s="8"/>
       <c r="X26" s="63" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -6225,7 +6148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:G5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -6241,12 +6164,12 @@
   <sheetData>
     <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="83" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D5" s="84" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
@@ -6260,7 +6183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6570,7 +6493,7 @@
       </c>
       <c r="O10" s="136"/>
       <c r="P10" s="136" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="136"/>
       <c r="R10" s="136" t="s">
@@ -6610,10 +6533,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="88" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G13" s="85" t="s">
         <v>85</v>
@@ -6660,7 +6583,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>34</v>
@@ -6669,7 +6592,7 @@
         <v>90</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J14" s="135" t="s">
         <v>38</v>
@@ -6983,7 +6906,7 @@
         <v>PJa</v>
       </c>
       <c r="P21" s="136" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="136"/>
       <c r="R21" s="136"/>
@@ -7153,13 +7076,13 @@
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="55"/>
       <c r="C35" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="74"/>
       <c r="C36" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -7171,10 +7094,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -7222,7 +7145,7 @@
         <v>78</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>99</v>
@@ -7250,7 +7173,7 @@
         <v>M€2005</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>100</v>
@@ -7352,7 +7275,7 @@
         <v>Demand Transport Sector - Cars</v>
       </c>
       <c r="S5" s="145" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T5" s="140"/>
       <c r="U5" s="140"/>
@@ -7377,7 +7300,7 @@
         <v>Demand Transport Sector - Pub</v>
       </c>
       <c r="S6" s="145" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T6" s="140"/>
       <c r="U6" s="140"/>
@@ -7437,16 +7360,16 @@
         <v>6</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H10" s="85" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I10" s="85" t="s">
         <v>84</v>
@@ -7455,7 +7378,7 @@
         <v>79</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="39" t="s">
@@ -7509,16 +7432,16 @@
         <v>98</v>
       </c>
       <c r="H11" s="99" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I11" s="20" t="s">
         <v>96</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="129" t="s">
@@ -7563,13 +7486,13 @@
         <v>000_Units</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G12" s="89" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H12" s="87" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I12" s="17" t="str">
         <f>$F$2&amp;"/"&amp;G2&amp;"a"</f>
@@ -7579,11 +7502,11 @@
         <v>92</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L12" s="42"/>
       <c r="M12" s="130" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O12" s="135" t="s">
         <v>81</v>
@@ -7645,7 +7568,7 @@
         <v>Demand Technologies Transport Sector - Existing Cars - Natural Gas</v>
       </c>
       <c r="S13" s="146" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T13" s="140" t="str">
         <f t="shared" ref="T13:T24" si="4">$G$2</f>
@@ -7653,7 +7576,7 @@
       </c>
       <c r="U13" s="136"/>
       <c r="V13" s="140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W13" s="136"/>
     </row>
@@ -7703,7 +7626,7 @@
         <v>Demand Technologies Transport Sector - Existing Cars - Diesel oil</v>
       </c>
       <c r="S14" s="145" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T14" s="140" t="str">
         <f t="shared" si="4"/>
@@ -7711,7 +7634,7 @@
       </c>
       <c r="U14" s="136"/>
       <c r="V14" s="140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W14" s="136"/>
     </row>
@@ -7761,7 +7684,7 @@
         <v>Demand Technologies Transport Sector - Existing Cars - LPG</v>
       </c>
       <c r="S15" s="145" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T15" s="140" t="str">
         <f t="shared" si="4"/>
@@ -7769,7 +7692,7 @@
       </c>
       <c r="U15" s="136"/>
       <c r="V15" s="140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W15" s="136"/>
     </row>
@@ -7819,7 +7742,7 @@
         <v>Demand Technologies Transport Sector - Existing Cars - Motor spirit</v>
       </c>
       <c r="S16" s="145" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T16" s="140" t="str">
         <f t="shared" si="4"/>
@@ -7827,7 +7750,7 @@
       </c>
       <c r="U16" s="136"/>
       <c r="V16" s="140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W16" s="136"/>
     </row>
@@ -7877,7 +7800,7 @@
         <v>Demand Technologies Transport Sector - Existing Cars - Biofuels</v>
       </c>
       <c r="S17" s="145" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T17" s="140" t="str">
         <f t="shared" si="4"/>
@@ -7885,7 +7808,7 @@
       </c>
       <c r="U17" s="136"/>
       <c r="V17" s="140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W17" s="136"/>
     </row>
@@ -7936,7 +7859,7 @@
         <v>Demand Technologies Transport Sector - Existing Cars - Electricity</v>
       </c>
       <c r="S18" s="144" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T18" s="144" t="str">
         <f t="shared" si="4"/>
@@ -7944,7 +7867,7 @@
       </c>
       <c r="U18" s="142"/>
       <c r="V18" s="144" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W18" s="142"/>
     </row>
@@ -7998,7 +7921,7 @@
         <v>Demand Technologies Transport Sector - Existing Pub - Natural Gas</v>
       </c>
       <c r="S19" s="145" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T19" s="140" t="str">
         <f t="shared" si="4"/>
@@ -8006,7 +7929,7 @@
       </c>
       <c r="U19" s="136"/>
       <c r="V19" s="140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W19" s="136"/>
     </row>
@@ -8060,7 +7983,7 @@
         <v>Demand Technologies Transport Sector - Existing Pub - Diesel oil</v>
       </c>
       <c r="S20" s="145" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T20" s="140" t="str">
         <f t="shared" si="4"/>
@@ -8068,7 +7991,7 @@
       </c>
       <c r="U20" s="136"/>
       <c r="V20" s="140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W20" s="136"/>
     </row>
@@ -8122,7 +8045,7 @@
         <v>Demand Technologies Transport Sector - Existing Pub - LPG</v>
       </c>
       <c r="S21" s="145" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T21" s="140" t="str">
         <f t="shared" si="4"/>
@@ -8130,7 +8053,7 @@
       </c>
       <c r="U21" s="136"/>
       <c r="V21" s="140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W21" s="136"/>
     </row>
@@ -8184,7 +8107,7 @@
         <v>Demand Technologies Transport Sector - Existing Pub - Motor spirit</v>
       </c>
       <c r="S22" s="145" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T22" s="140" t="str">
         <f t="shared" si="4"/>
@@ -8192,7 +8115,7 @@
       </c>
       <c r="U22" s="136"/>
       <c r="V22" s="140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W22" s="136"/>
     </row>
@@ -8246,7 +8169,7 @@
         <v>Demand Technologies Transport Sector - Existing Pub - Biofuels</v>
       </c>
       <c r="S23" s="145" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T23" s="140" t="str">
         <f t="shared" si="4"/>
@@ -8254,7 +8177,7 @@
       </c>
       <c r="U23" s="136"/>
       <c r="V23" s="140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W23" s="136"/>
     </row>
@@ -8308,7 +8231,7 @@
         <v>Demand Technologies Transport Sector - Existing Pub - Electricity</v>
       </c>
       <c r="S24" s="144" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="T24" s="144" t="str">
         <f t="shared" si="4"/>
@@ -8316,7 +8239,7 @@
       </c>
       <c r="U24" s="142"/>
       <c r="V24" s="144" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W24" s="142"/>
     </row>
@@ -8334,7 +8257,7 @@
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B27" s="55"/>
       <c r="C27" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="11"/>
@@ -8343,7 +8266,7 @@
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28" s="74"/>
       <c r="C28" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="11"/>
@@ -8390,11 +8313,11 @@
       <c r="E32" s="1"/>
     </row>
     <row r="36" spans="2:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="154">
+      <c r="B36" s="151">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.2">
@@ -8471,83 +8394,83 @@
         <f t="shared" ref="D38:D43" si="7">B13</f>
         <v>TCAREGAS</v>
       </c>
-      <c r="E38" s="155">
+      <c r="E38" s="152">
         <f t="shared" ref="E38:E43" si="8">$B38/$B$36</f>
         <v>25.890051428571425</v>
       </c>
-      <c r="F38" s="155">
+      <c r="F38" s="152">
         <f t="shared" ref="F38:U43" si="9">$B38/$B$36</f>
         <v>25.890051428571425</v>
       </c>
-      <c r="G38" s="155">
+      <c r="G38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="H38" s="155">
+      <c r="H38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="I38" s="155">
+      <c r="I38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="J38" s="155">
+      <c r="J38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="K38" s="155">
+      <c r="K38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="L38" s="155">
+      <c r="L38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="M38" s="155">
+      <c r="M38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="N38" s="155">
+      <c r="N38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="O38" s="155">
+      <c r="O38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="P38" s="155">
+      <c r="P38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="Q38" s="155">
+      <c r="Q38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="R38" s="155">
+      <c r="R38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="S38" s="155">
+      <c r="S38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="T38" s="155">
+      <c r="T38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="U38" s="155">
+      <c r="U38" s="152">
         <f t="shared" si="9"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="V38" s="155">
+      <c r="V38" s="152">
         <f t="shared" ref="V38:X43" si="10">$B38/$B$36</f>
         <v>25.890051428571425</v>
       </c>
-      <c r="W38" s="155">
+      <c r="W38" s="152">
         <f t="shared" si="10"/>
         <v>25.890051428571425</v>
       </c>
-      <c r="X38" s="155">
+      <c r="X38" s="152">
         <f t="shared" si="10"/>
         <v>25.890051428571425</v>
       </c>
@@ -8561,83 +8484,83 @@
         <f t="shared" si="7"/>
         <v>TCAREDSL</v>
       </c>
-      <c r="E39" s="155">
+      <c r="E39" s="152">
         <f t="shared" si="8"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="F39" s="155">
+      <c r="F39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="G39" s="155">
+      <c r="G39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="H39" s="155">
+      <c r="H39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="I39" s="155">
+      <c r="I39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="J39" s="155">
+      <c r="J39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="K39" s="155">
+      <c r="K39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="L39" s="155">
+      <c r="L39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="M39" s="155">
+      <c r="M39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="N39" s="155">
+      <c r="N39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="O39" s="155">
+      <c r="O39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="P39" s="155">
+      <c r="P39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="Q39" s="155">
+      <c r="Q39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="R39" s="155">
+      <c r="R39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="S39" s="155">
+      <c r="S39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="T39" s="155">
+      <c r="T39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="U39" s="155">
+      <c r="U39" s="152">
         <f t="shared" si="9"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="V39" s="155">
+      <c r="V39" s="152">
         <f t="shared" si="10"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="W39" s="155">
+      <c r="W39" s="152">
         <f t="shared" si="10"/>
         <v>9678.108033636363</v>
       </c>
-      <c r="X39" s="155">
+      <c r="X39" s="152">
         <f t="shared" si="10"/>
         <v>9678.108033636363</v>
       </c>
@@ -8651,83 +8574,83 @@
         <f t="shared" si="7"/>
         <v>TCARELPG</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="152">
         <f t="shared" si="8"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="H40" s="155">
+      <c r="H40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="I40" s="155">
+      <c r="I40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="J40" s="155">
+      <c r="J40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="K40" s="155">
+      <c r="K40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="L40" s="155">
+      <c r="L40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="M40" s="155">
+      <c r="M40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="N40" s="155">
+      <c r="N40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="O40" s="155">
+      <c r="O40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="P40" s="155">
+      <c r="P40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="Q40" s="155">
+      <c r="Q40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="R40" s="155">
+      <c r="R40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="S40" s="155">
+      <c r="S40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="T40" s="155">
+      <c r="T40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="U40" s="155">
+      <c r="U40" s="152">
         <f t="shared" si="9"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="V40" s="155">
+      <c r="V40" s="152">
         <f t="shared" si="10"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="W40" s="155">
+      <c r="W40" s="152">
         <f t="shared" si="10"/>
         <v>287.0306174603175</v>
       </c>
-      <c r="X40" s="155">
+      <c r="X40" s="152">
         <f t="shared" si="10"/>
         <v>287.0306174603175</v>
       </c>
@@ -8741,83 +8664,83 @@
         <f t="shared" si="7"/>
         <v>TCAREGSL</v>
       </c>
-      <c r="E41" s="155">
+      <c r="E41" s="152">
         <f t="shared" si="8"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="F41" s="155">
+      <c r="F41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="G41" s="155">
+      <c r="G41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="H41" s="155">
+      <c r="H41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="I41" s="155">
+      <c r="I41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="J41" s="155">
+      <c r="J41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="K41" s="155">
+      <c r="K41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="L41" s="155">
+      <c r="L41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="M41" s="155">
+      <c r="M41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="N41" s="155">
+      <c r="N41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="O41" s="155">
+      <c r="O41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="P41" s="155">
+      <c r="P41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="Q41" s="155">
+      <c r="Q41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="R41" s="155">
+      <c r="R41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="S41" s="155">
+      <c r="S41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="T41" s="155">
+      <c r="T41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="U41" s="155">
+      <c r="U41" s="152">
         <f t="shared" si="9"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="V41" s="155">
+      <c r="V41" s="152">
         <f t="shared" si="10"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="W41" s="155">
+      <c r="W41" s="152">
         <f t="shared" si="10"/>
         <v>9345.5387826086971</v>
       </c>
-      <c r="X41" s="155">
+      <c r="X41" s="152">
         <f t="shared" si="10"/>
         <v>9345.5387826086971</v>
       </c>
@@ -8831,83 +8754,83 @@
         <f t="shared" si="7"/>
         <v>TCAREBIO</v>
       </c>
-      <c r="E42" s="155">
+      <c r="E42" s="152">
         <f t="shared" si="8"/>
         <v>353.5</v>
       </c>
-      <c r="F42" s="155">
+      <c r="F42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="G42" s="155">
+      <c r="G42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="H42" s="155">
+      <c r="H42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="I42" s="155">
+      <c r="I42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="J42" s="155">
+      <c r="J42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="K42" s="155">
+      <c r="K42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="L42" s="155">
+      <c r="L42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="M42" s="155">
+      <c r="M42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="N42" s="155">
+      <c r="N42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="O42" s="155">
+      <c r="O42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="P42" s="155">
+      <c r="P42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="Q42" s="155">
+      <c r="Q42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="R42" s="155">
+      <c r="R42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="S42" s="155">
+      <c r="S42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="T42" s="155">
+      <c r="T42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="U42" s="155">
+      <c r="U42" s="152">
         <f t="shared" si="9"/>
         <v>353.5</v>
       </c>
-      <c r="V42" s="155">
+      <c r="V42" s="152">
         <f t="shared" si="10"/>
         <v>353.5</v>
       </c>
-      <c r="W42" s="155">
+      <c r="W42" s="152">
         <f t="shared" si="10"/>
         <v>353.5</v>
       </c>
-      <c r="X42" s="155">
+      <c r="X42" s="152">
         <f t="shared" si="10"/>
         <v>353.5</v>
       </c>
@@ -8921,83 +8844,83 @@
         <f t="shared" si="7"/>
         <v>TCAREELC</v>
       </c>
-      <c r="E43" s="155">
+      <c r="E43" s="152">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="155">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="155">
+      <c r="F43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="152">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W43" s="155">
+      <c r="W43" s="152">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X43" s="155">
+      <c r="X43" s="152">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -9010,11 +8933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Y28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9075,10 +8998,6 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
-      <c r="G5" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -9088,49 +9007,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E6" s="90">
         <v>2005</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="150" t="s">
-        <v>182</v>
-      </c>
-      <c r="I6" s="150" t="s">
-        <v>183</v>
-      </c>
-      <c r="J6" s="150" t="s">
-        <v>184</v>
-      </c>
-      <c r="K6" s="150" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="150" t="s">
-        <v>119</v>
-      </c>
-      <c r="M6" s="150" t="s">
-        <v>185</v>
-      </c>
-      <c r="N6" s="150" t="s">
-        <v>186</v>
-      </c>
-      <c r="O6" s="150" t="s">
-        <v>187</v>
-      </c>
-      <c r="P6" s="150" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q6" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="R6" s="150" t="s">
-        <v>121</v>
-      </c>
-      <c r="S6" s="150" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="22.5" x14ac:dyDescent="0.2">
@@ -9141,26 +9021,11 @@
         <v>82</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E7" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="148" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="148"/>
-      <c r="S7" s="148"/>
     </row>
     <row r="8" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
@@ -9172,21 +9037,6 @@
         <f>E2</f>
         <v>BPkm</v>
       </c>
-      <c r="G8" s="147" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
@@ -9197,52 +9047,12 @@
         <v>DTCAR</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E9" s="79">
         <f>SUM(DemTechs_TRA!M13:M18)</f>
         <v>3100.5969515937504</v>
       </c>
-      <c r="G9" s="8" t="str">
-        <f>DemTechs_TRA!$Q$5</f>
-        <v>DTCAR</v>
-      </c>
-      <c r="H9" s="153">
-        <v>9.417808219178081E-2</v>
-      </c>
-      <c r="I9" s="153">
-        <v>0.10273972602739725</v>
-      </c>
-      <c r="J9" s="153">
-        <v>8.5616438356164379E-3</v>
-      </c>
-      <c r="K9" s="153">
-        <v>0.12682648401826482</v>
-      </c>
-      <c r="L9" s="153">
-        <v>0.13835616438356163</v>
-      </c>
-      <c r="M9" s="153">
-        <v>1.1529680365296802E-2</v>
-      </c>
-      <c r="N9" s="153">
-        <v>9.9200913242009123E-2</v>
-      </c>
-      <c r="O9" s="153">
-        <v>0.10821917808219178</v>
-      </c>
-      <c r="P9" s="153">
-        <v>9.0182648401826472E-3</v>
-      </c>
-      <c r="Q9" s="153">
-        <v>0.13812785388127852</v>
-      </c>
-      <c r="R9" s="153">
-        <v>0.15068493150684931</v>
-      </c>
-      <c r="S9" s="153">
-        <v>1.2557077625570776E-2</v>
-      </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
@@ -9253,219 +9063,179 @@
         <v>DTPUB</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E10" s="79">
         <f>SUM(DemTechs_TRA!M19:M24)</f>
         <v>1750.8371336249998</v>
       </c>
-      <c r="G10" s="8" t="str">
-        <f>DemTechs_TRA!$Q$6</f>
-        <v>DTPUB</v>
-      </c>
-      <c r="H10" s="153">
-        <v>9.417808219178081E-2</v>
-      </c>
-      <c r="I10" s="153">
-        <v>0.10273972602739725</v>
-      </c>
-      <c r="J10" s="153">
-        <v>8.5616438356164379E-3</v>
-      </c>
-      <c r="K10" s="153">
-        <v>0.12682648401826482</v>
-      </c>
-      <c r="L10" s="153">
-        <v>0.13835616438356163</v>
-      </c>
-      <c r="M10" s="153">
-        <v>1.1529680365296802E-2</v>
-      </c>
-      <c r="N10" s="153">
-        <v>9.9200913242009123E-2</v>
-      </c>
-      <c r="O10" s="153">
-        <v>0.10821917808219178</v>
-      </c>
-      <c r="P10" s="153">
-        <v>9.0182648401826472E-3</v>
-      </c>
-      <c r="Q10" s="153">
-        <v>0.13812785388127852</v>
-      </c>
-      <c r="R10" s="153">
-        <v>0.15068493150684931</v>
-      </c>
-      <c r="S10" s="153">
-        <v>1.2557077625570776E-2</v>
-      </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="G11" s="11"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="151"/>
+      <c r="I11" s="148"/>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
       <c r="L11" s="25"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="149"/>
-      <c r="O11" s="149"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="149"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="149"/>
-      <c r="T11" s="149"/>
-      <c r="U11" s="149"/>
-      <c r="V11" s="149"/>
-      <c r="W11" s="149"/>
-      <c r="X11" s="149"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="147"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E12" s="36"/>
       <c r="G12" s="11"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="151"/>
+      <c r="I12" s="148"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
       <c r="L12" s="25"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="149"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="149"/>
-      <c r="Q12" s="149"/>
-      <c r="R12" s="149"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="149"/>
-      <c r="U12" s="149"/>
-      <c r="V12" s="149"/>
-      <c r="W12" s="149"/>
-      <c r="X12" s="149"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="147"/>
+      <c r="P12" s="147"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E13" s="10"/>
       <c r="H13" s="11"/>
       <c r="I13" s="38"/>
-      <c r="J13" s="151"/>
+      <c r="J13" s="148"/>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="25"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="149"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="H14" s="11"/>
       <c r="I14" s="38"/>
-      <c r="J14" s="151"/>
+      <c r="J14" s="148"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="149"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="147"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="147"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E15" s="10"/>
       <c r="H15" s="11"/>
       <c r="I15" s="38"/>
-      <c r="J15" s="151"/>
+      <c r="J15" s="148"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="G16" s="11"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="151"/>
+      <c r="I16" s="148"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="G17" s="38"/>
-      <c r="H17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="L17" s="153"/>
+      <c r="H17" s="149"/>
+      <c r="J17" s="149"/>
+      <c r="L17" s="150"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="G18" s="38"/>
-      <c r="H18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="L18" s="153"/>
+      <c r="H18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="L18" s="150"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="L19" s="153"/>
+      <c r="H19" s="149"/>
+      <c r="J19" s="149"/>
+      <c r="L19" s="150"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="L20" s="153"/>
+      <c r="H20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="L20" s="150"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H21" s="152"/>
-      <c r="J21" s="152"/>
-      <c r="L21" s="153"/>
+      <c r="H21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="L21" s="150"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="L22" s="153"/>
+      <c r="H22" s="149"/>
+      <c r="J22" s="149"/>
+      <c r="L22" s="150"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="55"/>
       <c r="C23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="L23" s="153"/>
+        <v>152</v>
+      </c>
+      <c r="H23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="L23" s="150"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="74"/>
       <c r="C24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="152"/>
-      <c r="J24" s="152"/>
-      <c r="L24" s="153"/>
+        <v>153</v>
+      </c>
+      <c r="H24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="L24" s="150"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="L25" s="153"/>
+      <c r="H25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="L25" s="150"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="L26" s="153"/>
+      <c r="H26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="L26" s="150"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H27" s="152"/>
-      <c r="J27" s="152"/>
-      <c r="L27" s="153"/>
+      <c r="H27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="L27" s="150"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H28" s="152"/>
-      <c r="J28" s="152"/>
-      <c r="L28" s="153"/>
+      <c r="H28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="L28" s="150"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9474,7 +9244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9488,7 +9258,7 @@
   <sheetData>
     <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -9507,7 +9277,7 @@
     </row>
     <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5" s="44"/>
       <c r="G5" s="38"/>
@@ -9542,16 +9312,16 @@
         <v>91</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G7" s="119"/>
       <c r="H7" s="119"/>
@@ -9589,13 +9359,13 @@
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="55"/>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="74"/>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/VT_REG1_TRA_V12.xlsx
+++ b/VT_REG1_TRA_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603D07CC-6450-4F33-A892-7D2CDD2EC399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6931C478-5BF8-41A2-831E-66C45C5BE06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -22,7 +22,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -4073,450 +4072,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="EnergyBalance"/>
-      <sheetName val="EB1"/>
-      <sheetName val="EB2"/>
-      <sheetName val="RES&amp;OBJ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="16">
-          <cell r="D16">
-            <v>231.76075</v>
-          </cell>
-          <cell r="E16">
-            <v>2063.9171999999999</v>
-          </cell>
-          <cell r="G16">
-            <v>862.053</v>
-          </cell>
-          <cell r="H16">
-            <v>72.9495</v>
-          </cell>
-          <cell r="I16">
-            <v>190.17599999999999</v>
-          </cell>
-          <cell r="J16">
-            <v>3.1680000000000001</v>
-          </cell>
-          <cell r="K16">
-            <v>0</v>
-          </cell>
-          <cell r="L16">
-            <v>15.38</v>
-          </cell>
-          <cell r="M16">
-            <v>0.92</v>
-          </cell>
-          <cell r="N16">
-            <v>0</v>
-          </cell>
-          <cell r="O16">
-            <v>895.44524999999999</v>
-          </cell>
-          <cell r="P16">
-            <v>0</v>
-          </cell>
-          <cell r="Q16">
-            <v>0</v>
-          </cell>
-          <cell r="R16">
-            <v>50</v>
-          </cell>
-          <cell r="S16">
-            <v>0</v>
-          </cell>
-          <cell r="T16">
-            <v>432.74250000000001</v>
-          </cell>
-          <cell r="U16">
-            <v>1435.8710000000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>37.001249999999999</v>
-          </cell>
-          <cell r="E17">
-            <v>700.69200000000001</v>
-          </cell>
-          <cell r="G17">
-            <v>368.84399999999999</v>
-          </cell>
-          <cell r="H17">
-            <v>1.677</v>
-          </cell>
-          <cell r="I17">
-            <v>31.602</v>
-          </cell>
-          <cell r="J17">
-            <v>5.72</v>
-          </cell>
-          <cell r="K17">
-            <v>0</v>
-          </cell>
-          <cell r="L17">
-            <v>19.32</v>
-          </cell>
-          <cell r="M17">
-            <v>0.24199999999999999</v>
-          </cell>
-          <cell r="N17">
-            <v>0</v>
-          </cell>
-          <cell r="O17">
-            <v>39</v>
-          </cell>
-          <cell r="P17">
-            <v>0</v>
-          </cell>
-          <cell r="Q17">
-            <v>0</v>
-          </cell>
-          <cell r="R17">
-            <v>7.5</v>
-          </cell>
-          <cell r="S17">
-            <v>0.60850000000000004</v>
-          </cell>
-          <cell r="T17">
-            <v>127.32299999999999</v>
-          </cell>
-          <cell r="U17">
-            <v>1263.6955</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>1233.0409000000002</v>
-          </cell>
-          <cell r="E18">
-            <v>1774.8644000000002</v>
-          </cell>
-          <cell r="G18">
-            <v>298.68</v>
-          </cell>
-          <cell r="H18">
-            <v>36.356499999999997</v>
-          </cell>
-          <cell r="I18">
-            <v>142.97149999999999</v>
-          </cell>
-          <cell r="J18">
-            <v>7.766</v>
-          </cell>
-          <cell r="K18">
-            <v>44.066000000000003</v>
-          </cell>
-          <cell r="L18">
-            <v>286.0505</v>
-          </cell>
-          <cell r="M18">
-            <v>191.57300000000001</v>
-          </cell>
-          <cell r="N18">
-            <v>0</v>
-          </cell>
-          <cell r="O18">
-            <v>541.25324999999998</v>
-          </cell>
-          <cell r="P18">
-            <v>0</v>
-          </cell>
-          <cell r="Q18">
-            <v>0</v>
-          </cell>
-          <cell r="R18">
-            <v>0</v>
-          </cell>
-          <cell r="S18">
-            <v>58.595999999999997</v>
-          </cell>
-          <cell r="T18">
-            <v>316.79149999999998</v>
-          </cell>
-          <cell r="U18">
-            <v>2044.222</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>28.665000000000003</v>
-          </cell>
-          <cell r="E19">
-            <v>80.482399999999998</v>
-          </cell>
-          <cell r="G19">
-            <v>366.58800000000002</v>
-          </cell>
-          <cell r="H19">
-            <v>0.47299999999999998</v>
-          </cell>
-          <cell r="I19">
-            <v>16.169</v>
-          </cell>
-          <cell r="J19">
-            <v>1.716</v>
-          </cell>
-          <cell r="K19">
-            <v>0</v>
-          </cell>
-          <cell r="L19">
-            <v>13.74</v>
-          </cell>
-          <cell r="M19">
-            <v>0</v>
-          </cell>
-          <cell r="N19">
-            <v>0</v>
-          </cell>
-          <cell r="O19">
-            <v>47.314499999999995</v>
-          </cell>
-          <cell r="P19">
-            <v>0</v>
-          </cell>
-          <cell r="Q19">
-            <v>0</v>
-          </cell>
-          <cell r="R19">
-            <v>0</v>
-          </cell>
-          <cell r="S19">
-            <v>5.0000000000000001E-4</v>
-          </cell>
-          <cell r="T19">
-            <v>7.7869999999999999</v>
-          </cell>
-          <cell r="U19">
-            <v>9.6930000000000014</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>0.36140000000000005</v>
-          </cell>
-          <cell r="E20">
-            <v>8.4995999999999992</v>
-          </cell>
-          <cell r="G20">
-            <v>3856.2855</v>
-          </cell>
-          <cell r="H20">
-            <v>1047.652</v>
-          </cell>
-          <cell r="I20">
-            <v>94.230999999999995</v>
-          </cell>
-          <cell r="J20">
-            <v>2394.2159999999999</v>
-          </cell>
-          <cell r="K20">
-            <v>0</v>
-          </cell>
-          <cell r="L20">
-            <v>33.24</v>
-          </cell>
-          <cell r="M20">
-            <v>0</v>
-          </cell>
-          <cell r="N20">
-            <v>0</v>
-          </cell>
-          <cell r="O20">
-            <v>120.75</v>
-          </cell>
-          <cell r="P20">
-            <v>0</v>
-          </cell>
-          <cell r="Q20">
-            <v>0</v>
-          </cell>
-          <cell r="R20">
-            <v>0</v>
-          </cell>
-          <cell r="S20">
-            <v>0</v>
-          </cell>
-          <cell r="T20">
-            <v>0</v>
-          </cell>
-          <cell r="U20">
-            <v>132.98599999999999</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>773.00014999999871</v>
-          </cell>
-          <cell r="E21">
-            <v>0</v>
-          </cell>
-          <cell r="G21">
-            <v>0</v>
-          </cell>
-          <cell r="H21">
-            <v>0</v>
-          </cell>
-          <cell r="I21">
-            <v>0</v>
-          </cell>
-          <cell r="J21">
-            <v>0</v>
-          </cell>
-          <cell r="K21">
-            <v>0</v>
-          </cell>
-          <cell r="L21">
-            <v>0</v>
-          </cell>
-          <cell r="M21">
-            <v>0</v>
-          </cell>
-          <cell r="N21">
-            <v>0</v>
-          </cell>
-          <cell r="O21">
-            <v>0</v>
-          </cell>
-          <cell r="P21">
-            <v>0</v>
-          </cell>
-          <cell r="Q21">
-            <v>0</v>
-          </cell>
-          <cell r="R21">
-            <v>0</v>
-          </cell>
-          <cell r="S21">
-            <v>0</v>
-          </cell>
-          <cell r="T21">
-            <v>313.51900000000001</v>
-          </cell>
-          <cell r="U21">
-            <v>325</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>34.094450000000002</v>
-          </cell>
-          <cell r="E22">
-            <v>253.5292</v>
-          </cell>
-          <cell r="G22">
-            <v>76.465000000000003</v>
-          </cell>
-          <cell r="H22">
-            <v>4.7945000000000002</v>
-          </cell>
-          <cell r="I22">
-            <v>199.87350000000001</v>
-          </cell>
-          <cell r="J22">
-            <v>3.1459999999999999</v>
-          </cell>
-          <cell r="K22">
-            <v>899.20600000000002</v>
-          </cell>
-          <cell r="L22">
-            <v>52.04</v>
-          </cell>
-          <cell r="M22">
-            <v>800.72900000000004</v>
-          </cell>
-          <cell r="N22">
-            <v>0</v>
-          </cell>
-          <cell r="O22">
-            <v>0</v>
-          </cell>
-          <cell r="P22">
-            <v>0</v>
-          </cell>
-          <cell r="Q22">
-            <v>0</v>
-          </cell>
-          <cell r="R22">
-            <v>0</v>
-          </cell>
-          <cell r="S22">
-            <v>0</v>
-          </cell>
-          <cell r="T22">
-            <v>0</v>
-          </cell>
-          <cell r="U22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-          <cell r="E23">
-            <v>0</v>
-          </cell>
-          <cell r="G23">
-            <v>146.90600000000001</v>
-          </cell>
-          <cell r="H23">
-            <v>0</v>
-          </cell>
-          <cell r="I23">
-            <v>0</v>
-          </cell>
-          <cell r="J23">
-            <v>0</v>
-          </cell>
-          <cell r="K23">
-            <v>0</v>
-          </cell>
-          <cell r="L23">
-            <v>902.14</v>
-          </cell>
-          <cell r="M23">
-            <v>6.5</v>
-          </cell>
-          <cell r="N23">
-            <v>0</v>
-          </cell>
-          <cell r="O23">
-            <v>0</v>
-          </cell>
-          <cell r="P23">
-            <v>0</v>
-          </cell>
-          <cell r="Q23">
-            <v>0</v>
-          </cell>
-          <cell r="R23">
-            <v>0</v>
-          </cell>
-          <cell r="S23">
-            <v>0</v>
-          </cell>
-          <cell r="T23">
-            <v>0</v>
-          </cell>
-          <cell r="U23">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5068,75 +4623,57 @@
         <v>59</v>
       </c>
       <c r="D5" s="95">
-        <f>[2]EB1!D16</f>
         <v>231.76075</v>
       </c>
       <c r="E5" s="95">
-        <f>[2]EB1!E16</f>
         <v>2063.9171999999999</v>
       </c>
       <c r="F5" s="95">
-        <f>[2]EB1!F16</f>
         <v>0</v>
       </c>
       <c r="G5" s="95">
-        <f>[2]EB1!G16</f>
         <v>862.053</v>
       </c>
       <c r="H5" s="95">
-        <f>[2]EB1!H16</f>
         <v>72.9495</v>
       </c>
       <c r="I5" s="95">
-        <f>[2]EB1!I16</f>
         <v>190.17599999999999</v>
       </c>
       <c r="J5" s="95">
-        <f>[2]EB1!J16</f>
         <v>3.1680000000000001</v>
       </c>
       <c r="K5" s="95">
-        <f>[2]EB1!K16</f>
         <v>0</v>
       </c>
       <c r="L5" s="95">
-        <f>[2]EB1!L16</f>
         <v>15.38</v>
       </c>
       <c r="M5" s="95">
-        <f>[2]EB1!M16</f>
         <v>0.92</v>
       </c>
       <c r="N5" s="96">
-        <f>[2]EB1!N16</f>
         <v>0</v>
       </c>
       <c r="O5" s="95">
-        <f>[2]EB1!O16</f>
         <v>895.44524999999999</v>
       </c>
       <c r="P5" s="95">
-        <f>[2]EB1!P16</f>
         <v>0</v>
       </c>
       <c r="Q5" s="95">
-        <f>[2]EB1!Q16</f>
         <v>0</v>
       </c>
       <c r="R5" s="95">
-        <f>[2]EB1!R16</f>
         <v>50</v>
       </c>
       <c r="S5" s="95">
-        <f>[2]EB1!S16</f>
         <v>0</v>
       </c>
       <c r="T5" s="95">
-        <f>[2]EB1!T16</f>
         <v>432.74250000000001</v>
       </c>
       <c r="U5" s="95">
-        <f>[2]EB1!U16</f>
         <v>1435.8710000000001</v>
       </c>
       <c r="V5" s="97">
@@ -5153,75 +4690,57 @@
         <v>61</v>
       </c>
       <c r="D6" s="95">
-        <f>[2]EB1!D17</f>
         <v>37.001249999999999</v>
       </c>
       <c r="E6" s="95">
-        <f>[2]EB1!E17</f>
         <v>700.69200000000001</v>
       </c>
       <c r="F6" s="95">
-        <f>[2]EB1!F17</f>
         <v>0</v>
       </c>
       <c r="G6" s="95">
-        <f>[2]EB1!G17</f>
         <v>368.84399999999999</v>
       </c>
       <c r="H6" s="95">
-        <f>[2]EB1!H17</f>
         <v>1.677</v>
       </c>
       <c r="I6" s="95">
-        <f>[2]EB1!I17</f>
         <v>31.602</v>
       </c>
       <c r="J6" s="95">
-        <f>[2]EB1!J17</f>
         <v>5.72</v>
       </c>
       <c r="K6" s="95">
-        <f>[2]EB1!K17</f>
         <v>0</v>
       </c>
       <c r="L6" s="95">
-        <f>[2]EB1!L17</f>
         <v>19.32</v>
       </c>
       <c r="M6" s="95">
-        <f>[2]EB1!M17</f>
         <v>0.24199999999999999</v>
       </c>
       <c r="N6" s="96">
-        <f>[2]EB1!N17</f>
         <v>0</v>
       </c>
       <c r="O6" s="95">
-        <f>[2]EB1!O17</f>
         <v>39</v>
       </c>
       <c r="P6" s="95">
-        <f>[2]EB1!P17</f>
         <v>0</v>
       </c>
       <c r="Q6" s="95">
-        <f>[2]EB1!Q17</f>
         <v>0</v>
       </c>
       <c r="R6" s="95">
-        <f>[2]EB1!R17</f>
         <v>7.5</v>
       </c>
       <c r="S6" s="95">
-        <f>[2]EB1!S17</f>
         <v>0.60850000000000004</v>
       </c>
       <c r="T6" s="95">
-        <f>[2]EB1!T17</f>
         <v>127.32299999999999</v>
       </c>
       <c r="U6" s="95">
-        <f>[2]EB1!U17</f>
         <v>1263.6955</v>
       </c>
       <c r="V6" s="97">
@@ -5238,75 +4757,57 @@
         <v>63</v>
       </c>
       <c r="D7" s="95">
-        <f>[2]EB1!D18</f>
         <v>1233.0409000000002</v>
       </c>
       <c r="E7" s="95">
-        <f>[2]EB1!E18</f>
         <v>1774.8644000000002</v>
       </c>
       <c r="F7" s="95">
-        <f>[2]EB1!F18</f>
         <v>0</v>
       </c>
       <c r="G7" s="95">
-        <f>[2]EB1!G18</f>
         <v>298.68</v>
       </c>
       <c r="H7" s="95">
-        <f>[2]EB1!H18</f>
         <v>36.356499999999997</v>
       </c>
       <c r="I7" s="95">
-        <f>[2]EB1!I18</f>
         <v>142.97149999999999</v>
       </c>
       <c r="J7" s="95">
-        <f>[2]EB1!J18</f>
         <v>7.766</v>
       </c>
       <c r="K7" s="95">
-        <f>[2]EB1!K18</f>
         <v>44.066000000000003</v>
       </c>
       <c r="L7" s="95">
-        <f>[2]EB1!L18</f>
         <v>286.0505</v>
       </c>
       <c r="M7" s="95">
-        <f>[2]EB1!M18</f>
         <v>191.57300000000001</v>
       </c>
       <c r="N7" s="96">
-        <f>[2]EB1!N18</f>
         <v>0</v>
       </c>
       <c r="O7" s="95">
-        <f>[2]EB1!O18</f>
         <v>541.25324999999998</v>
       </c>
       <c r="P7" s="95">
-        <f>[2]EB1!P18</f>
         <v>0</v>
       </c>
       <c r="Q7" s="95">
-        <f>[2]EB1!Q18</f>
         <v>0</v>
       </c>
       <c r="R7" s="95">
-        <f>[2]EB1!R18</f>
         <v>0</v>
       </c>
       <c r="S7" s="95">
-        <f>[2]EB1!S18</f>
         <v>58.595999999999997</v>
       </c>
       <c r="T7" s="95">
-        <f>[2]EB1!T18</f>
         <v>316.79149999999998</v>
       </c>
       <c r="U7" s="95">
-        <f>[2]EB1!U18</f>
         <v>2044.222</v>
       </c>
       <c r="V7" s="97">
@@ -5323,75 +4824,57 @@
         <v>65</v>
       </c>
       <c r="D8" s="95">
-        <f>[2]EB1!D19</f>
         <v>28.665000000000003</v>
       </c>
       <c r="E8" s="95">
-        <f>[2]EB1!E19</f>
         <v>80.482399999999998</v>
       </c>
       <c r="F8" s="95">
-        <f>[2]EB1!F19</f>
         <v>0</v>
       </c>
       <c r="G8" s="95">
-        <f>[2]EB1!G19</f>
         <v>366.58800000000002</v>
       </c>
       <c r="H8" s="95">
-        <f>[2]EB1!H19</f>
         <v>0.47299999999999998</v>
       </c>
       <c r="I8" s="95">
-        <f>[2]EB1!I19</f>
         <v>16.169</v>
       </c>
       <c r="J8" s="95">
-        <f>[2]EB1!J19</f>
         <v>1.716</v>
       </c>
       <c r="K8" s="95">
-        <f>[2]EB1!K19</f>
         <v>0</v>
       </c>
       <c r="L8" s="95">
-        <f>[2]EB1!L19</f>
         <v>13.74</v>
       </c>
       <c r="M8" s="95">
-        <f>[2]EB1!M19</f>
         <v>0</v>
       </c>
       <c r="N8" s="96">
-        <f>[2]EB1!N19</f>
         <v>0</v>
       </c>
       <c r="O8" s="95">
-        <f>[2]EB1!O19</f>
         <v>47.314499999999995</v>
       </c>
       <c r="P8" s="95">
-        <f>[2]EB1!P19</f>
         <v>0</v>
       </c>
       <c r="Q8" s="95">
-        <f>[2]EB1!Q19</f>
         <v>0</v>
       </c>
       <c r="R8" s="95">
-        <f>[2]EB1!R19</f>
         <v>0</v>
       </c>
       <c r="S8" s="95">
-        <f>[2]EB1!S19</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="T8" s="95">
-        <f>[2]EB1!T19</f>
         <v>7.7869999999999999</v>
       </c>
       <c r="U8" s="95">
-        <f>[2]EB1!U19</f>
         <v>9.6930000000000014</v>
       </c>
       <c r="V8" s="97">
@@ -5408,75 +4891,57 @@
         <v>67</v>
       </c>
       <c r="D9" s="95">
-        <f>[2]EB1!D20</f>
         <v>0.36140000000000005</v>
       </c>
       <c r="E9" s="57">
-        <f>[2]EB1!E20</f>
         <v>8.4995999999999992</v>
       </c>
       <c r="F9" s="95">
-        <f>[2]EB1!F20</f>
         <v>0</v>
       </c>
       <c r="G9" s="57">
-        <f>[2]EB1!G20</f>
         <v>3856.2855</v>
       </c>
       <c r="H9" s="95">
-        <f>[2]EB1!H20</f>
         <v>1047.652</v>
       </c>
       <c r="I9" s="57">
-        <f>[2]EB1!I20</f>
         <v>94.230999999999995</v>
       </c>
       <c r="J9" s="57">
-        <f>[2]EB1!J20</f>
         <v>2394.2159999999999</v>
       </c>
       <c r="K9" s="95">
-        <f>[2]EB1!K20</f>
         <v>0</v>
       </c>
       <c r="L9" s="95">
-        <f>[2]EB1!L20</f>
         <v>33.24</v>
       </c>
       <c r="M9" s="95">
-        <f>[2]EB1!M20</f>
         <v>0</v>
       </c>
       <c r="N9" s="95">
-        <f>[2]EB1!N20</f>
         <v>0</v>
       </c>
       <c r="O9" s="57">
-        <f>[2]EB1!O20</f>
         <v>120.75</v>
       </c>
       <c r="P9" s="95">
-        <f>[2]EB1!P20</f>
         <v>0</v>
       </c>
       <c r="Q9" s="95">
-        <f>[2]EB1!Q20</f>
         <v>0</v>
       </c>
       <c r="R9" s="95">
-        <f>[2]EB1!R20</f>
         <v>0</v>
       </c>
       <c r="S9" s="95">
-        <f>[2]EB1!S20</f>
         <v>0</v>
       </c>
       <c r="T9" s="95">
-        <f>[2]EB1!T20</f>
         <v>0</v>
       </c>
       <c r="U9" s="57">
-        <f>[2]EB1!U20</f>
         <v>132.98599999999999</v>
       </c>
       <c r="V9" s="97">
@@ -5493,75 +4958,57 @@
         <v>69</v>
       </c>
       <c r="D10" s="56">
-        <f>[2]EB1!D21</f>
         <v>773.00014999999871</v>
       </c>
       <c r="E10" s="56">
-        <f>[2]EB1!E21</f>
         <v>0</v>
       </c>
       <c r="F10" s="56">
-        <f>[2]EB1!F21</f>
         <v>0</v>
       </c>
       <c r="G10" s="56">
-        <f>[2]EB1!G21</f>
         <v>0</v>
       </c>
       <c r="H10" s="56">
-        <f>[2]EB1!H21</f>
         <v>0</v>
       </c>
       <c r="I10" s="56">
-        <f>[2]EB1!I21</f>
         <v>0</v>
       </c>
       <c r="J10" s="56">
-        <f>[2]EB1!J21</f>
         <v>0</v>
       </c>
       <c r="K10" s="56">
-        <f>[2]EB1!K21</f>
         <v>0</v>
       </c>
       <c r="L10" s="56">
-        <f>[2]EB1!L21</f>
         <v>0</v>
       </c>
       <c r="M10" s="56">
-        <f>[2]EB1!M21</f>
         <v>0</v>
       </c>
       <c r="N10" s="56">
-        <f>[2]EB1!N21</f>
         <v>0</v>
       </c>
       <c r="O10" s="56">
-        <f>[2]EB1!O21</f>
         <v>0</v>
       </c>
       <c r="P10" s="56">
-        <f>[2]EB1!P21</f>
         <v>0</v>
       </c>
       <c r="Q10" s="56">
-        <f>[2]EB1!Q21</f>
         <v>0</v>
       </c>
       <c r="R10" s="56">
-        <f>[2]EB1!R21</f>
         <v>0</v>
       </c>
       <c r="S10" s="56">
-        <f>[2]EB1!S21</f>
         <v>0</v>
       </c>
       <c r="T10" s="56">
-        <f>[2]EB1!T21</f>
         <v>313.51900000000001</v>
       </c>
       <c r="U10" s="56">
-        <f>[2]EB1!U21</f>
         <v>325</v>
       </c>
       <c r="V10" s="98">
@@ -5578,75 +5025,57 @@
         <v>70</v>
       </c>
       <c r="D11" s="95">
-        <f>[2]EB1!D22</f>
         <v>34.094450000000002</v>
       </c>
       <c r="E11" s="95">
-        <f>[2]EB1!E22</f>
         <v>253.5292</v>
       </c>
       <c r="F11" s="95">
-        <f>[2]EB1!F22</f>
         <v>0</v>
       </c>
       <c r="G11" s="95">
-        <f>[2]EB1!G22</f>
         <v>76.465000000000003</v>
       </c>
       <c r="H11" s="95">
-        <f>[2]EB1!H22</f>
         <v>4.7945000000000002</v>
       </c>
       <c r="I11" s="95">
-        <f>[2]EB1!I22</f>
         <v>199.87350000000001</v>
       </c>
       <c r="J11" s="95">
-        <f>[2]EB1!J22</f>
         <v>3.1459999999999999</v>
       </c>
       <c r="K11" s="95">
-        <f>[2]EB1!K22</f>
         <v>899.20600000000002</v>
       </c>
       <c r="L11" s="95">
-        <f>[2]EB1!L22</f>
         <v>52.04</v>
       </c>
       <c r="M11" s="95">
-        <f>[2]EB1!M22</f>
         <v>800.72900000000004</v>
       </c>
       <c r="N11" s="96">
-        <f>[2]EB1!N22</f>
         <v>0</v>
       </c>
       <c r="O11" s="95">
-        <f>[2]EB1!O22</f>
         <v>0</v>
       </c>
       <c r="P11" s="95">
-        <f>[2]EB1!P22</f>
         <v>0</v>
       </c>
       <c r="Q11" s="95">
-        <f>[2]EB1!Q22</f>
         <v>0</v>
       </c>
       <c r="R11" s="95">
-        <f>[2]EB1!R22</f>
         <v>0</v>
       </c>
       <c r="S11" s="95">
-        <f>[2]EB1!S22</f>
         <v>0</v>
       </c>
       <c r="T11" s="95">
-        <f>[2]EB1!T22</f>
         <v>0</v>
       </c>
       <c r="U11" s="95">
-        <f>[2]EB1!U22</f>
         <v>0</v>
       </c>
       <c r="V11" s="97">
@@ -5663,75 +5092,57 @@
         <v>71</v>
       </c>
       <c r="D12" s="95">
-        <f>[2]EB1!D23</f>
         <v>0</v>
       </c>
       <c r="E12" s="95">
-        <f>[2]EB1!E23</f>
         <v>0</v>
       </c>
       <c r="F12" s="95">
-        <f>[2]EB1!F23</f>
         <v>0</v>
       </c>
       <c r="G12" s="95">
-        <f>[2]EB1!G23</f>
         <v>146.90600000000001</v>
       </c>
       <c r="H12" s="95">
-        <f>[2]EB1!H23</f>
         <v>0</v>
       </c>
       <c r="I12" s="95">
-        <f>[2]EB1!I23</f>
         <v>0</v>
       </c>
       <c r="J12" s="95">
-        <f>[2]EB1!J23</f>
         <v>0</v>
       </c>
       <c r="K12" s="95">
-        <f>[2]EB1!K23</f>
         <v>0</v>
       </c>
       <c r="L12" s="95">
-        <f>[2]EB1!L23</f>
         <v>902.14</v>
       </c>
       <c r="M12" s="95">
-        <f>[2]EB1!M23</f>
         <v>6.5</v>
       </c>
       <c r="N12" s="96">
-        <f>[2]EB1!N23</f>
         <v>0</v>
       </c>
       <c r="O12" s="56">
-        <f>[2]EB1!O23</f>
         <v>0</v>
       </c>
       <c r="P12" s="56">
-        <f>[2]EB1!P23</f>
         <v>0</v>
       </c>
       <c r="Q12" s="56">
-        <f>[2]EB1!Q23</f>
         <v>0</v>
       </c>
       <c r="R12" s="56">
-        <f>[2]EB1!R23</f>
         <v>0</v>
       </c>
       <c r="S12" s="95">
-        <f>[2]EB1!S23</f>
         <v>0</v>
       </c>
       <c r="T12" s="95">
-        <f>[2]EB1!T23</f>
         <v>0</v>
       </c>
       <c r="U12" s="95">
-        <f>[2]EB1!U23</f>
         <v>0</v>
       </c>
       <c r="V12" s="97">
@@ -8937,7 +8348,7 @@
   <dimension ref="B1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9010,7 +8421,10 @@
         <v>145</v>
       </c>
       <c r="E6" s="90">
-        <v>2005</v>
+        <v>2020</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="22.5" x14ac:dyDescent="0.2">
@@ -9053,6 +8467,9 @@
         <f>SUM(DemTechs_TRA!M13:M18)</f>
         <v>3100.5969515937504</v>
       </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
@@ -9068,6 +8485,9 @@
       <c r="E10" s="79">
         <f>SUM(DemTechs_TRA!M19:M24)</f>
         <v>1750.8371336249998</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.2">
